--- a/bulk-upload-templates/fr/FR_E-Label_Template.xlsx
+++ b/bulk-upload-templates/fr/FR_E-Label_Template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gigi/Desktop/Imero/e-label.io/bulk-upload-templates/fr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbauer/workspace/vs_code/misc/e-label.io/bulk-upload-templates/fr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF529A-A93C-D848-9CF9-1C8835088F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E5808-1ABC-B443-A584-F4526C1FB712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="1" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="E-Label Upload" sheetId="1" r:id="rId1"/>
-    <sheet name="Erlaubte Zutaten" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="E-Label Upload" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Erlaubte Zutaten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -129,12 +129,6 @@
     <t>Emballé sous atmosphère protectrice</t>
   </si>
   <si>
-    <t>Acide tartrique [L(+)-]</t>
-  </si>
-  <si>
-    <t>Acide malique (D, L-; L-)</t>
-  </si>
-  <si>
     <t>Acide lactique</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>Acide citrique (pour agents stabilisateurs)</t>
+  </si>
+  <si>
+    <t>Acide tartrique</t>
+  </si>
+  <si>
+    <t>Acide malique</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,9 +472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -512,7 +512,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -618,7 +618,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -760,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4271114-3DDD-3644-B3E5-81C7199578E4}">
   <dimension ref="A1:O1147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
@@ -871,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -18844,8 +18844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB2A205-F100-5742-AB12-7F9C1E480E50}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18922,89 +18922,89 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">

--- a/bulk-upload-templates/fr/FR_E-Label_Template.xlsx
+++ b/bulk-upload-templates/fr/FR_E-Label_Template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbauer/workspace/vs_code/misc/e-label.io/bulk-upload-templates/fr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E5808-1ABC-B443-A584-F4526C1FB712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3417CCE1-EAFC-404E-8B30-6887E96E9517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="1" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="E-Label Upload" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Erlaubte Zutaten" sheetId="2" r:id="rId2"/>
+    <sheet name="E-Label Upload" sheetId="1" r:id="rId1"/>
+    <sheet name="Erlaubte Zutaten" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -770,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4271114-3DDD-3644-B3E5-81C7199578E4}">
   <dimension ref="A1:O1147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="32">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E2" s="32">
         <v>750</v>
@@ -18844,7 +18844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB2A205-F100-5742-AB12-7F9C1E480E50}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
